--- a/Proyectos_conteo_1.xlsx
+++ b/Proyectos_conteo_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://planeacionnacional-my.sharepoint.com/personal/ucd_dnp_gov_co/Documents/Repositorio UCD/Proyectos UCD/2024/P27-2024_Mapa_brechas/Codigo/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_10B5BAB91B484C0E62355476585DCE3A874FCF82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808F8963-EC5F-4732-BD08-2C2BCFCC2D19}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_10B5BAB91B484C0E62355476585DCE3A874FCF82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B26529-3F92-4437-B20D-F30AA3207B37}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4427,6 +4427,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4717,15 +4721,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="45.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -14244,7 +14246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>522</v>
       </c>
@@ -23255,7 +23257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="857" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>961</v>
       </c>
@@ -31119,7 +31121,7 @@
   <autoFilter ref="A1:G1330" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="La Plata"/>
+        <filter val="Yondó"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Proyectos_conteo_1.xlsx
+++ b/Proyectos_conteo_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://planeacionnacional-my.sharepoint.com/personal/ucd_dnp_gov_co/Documents/Repositorio UCD/Proyectos UCD/2024/P27-2024_Mapa_brechas/Codigo/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_09A5319ED943DA0E62355476585DCE3A8740B926" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A011DC42-4C0C-4F60-A95D-80334B047EF5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_09A5319ED943DA0E62355476585DCE3A8740B926" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC56232C-7B9A-48E6-B4C8-90264F919982}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5712" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4124,6 +4124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4411,12 +4415,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J975"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G573" sqref="G573"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4456,7 +4457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>135</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>162</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -7045,7 +7046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>188</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>189</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -7877,7 +7878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>220</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -7973,7 +7974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>228</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>230</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>234</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>236</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -8293,7 +8294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -8357,7 +8358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -8421,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -8453,7 +8454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>253</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>255</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>257</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>260</v>
       </c>
@@ -8677,7 +8678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>262</v>
       </c>
@@ -8709,7 +8710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>263</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>266</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>268</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>269</v>
       </c>
@@ -8837,7 +8838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>271</v>
       </c>
@@ -8869,7 +8870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>273</v>
       </c>
@@ -8901,7 +8902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>275</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>277</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>279</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>280</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>282</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>284</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>288</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>290</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>294</v>
       </c>
@@ -9253,7 +9254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>296</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>298</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>299</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>303</v>
       </c>
@@ -9413,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>304</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>305</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>307</v>
       </c>
@@ -9509,7 +9510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>308</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>310</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>312</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>313</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>315</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>317</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>319</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>320</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>322</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>323</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>324</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>326</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>327</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>328</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>329</v>
       </c>
@@ -9989,7 +9990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>332</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>334</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>336</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>338</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>339</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>340</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>342</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>344</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>346</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>348</v>
       </c>
@@ -10309,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>349</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>350</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>351</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>352</v>
       </c>
@@ -10437,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>354</v>
       </c>
@@ -10469,7 +10470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>355</v>
       </c>
@@ -10501,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>356</v>
       </c>
@@ -10533,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>357</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>358</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>359</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>361</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>363</v>
       </c>
@@ -10693,7 +10694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>365</v>
       </c>
@@ -10725,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>367</v>
       </c>
@@ -10757,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>368</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>370</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>371</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>373</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>374</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>375</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>376</v>
       </c>
@@ -10981,7 +10982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>377</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>378</v>
       </c>
@@ -11045,7 +11046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>380</v>
       </c>
@@ -11077,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>381</v>
       </c>
@@ -11109,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>382</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>384</v>
       </c>
@@ -11173,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>385</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>386</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>387</v>
       </c>
@@ -11269,7 +11270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>389</v>
       </c>
@@ -11301,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>391</v>
       </c>
@@ -11333,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>393</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>395</v>
       </c>
@@ -11397,7 +11398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>396</v>
       </c>
@@ -11429,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>364</v>
       </c>
@@ -11461,7 +11462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>398</v>
       </c>
@@ -11493,7 +11494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>399</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>401</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>402</v>
       </c>
@@ -11589,7 +11590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -11621,7 +11622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>406</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -11685,7 +11686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>409</v>
       </c>
@@ -11717,7 +11718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>410</v>
       </c>
@@ -11749,7 +11750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>411</v>
       </c>
@@ -11781,7 +11782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>413</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>415</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>417</v>
       </c>
@@ -11877,7 +11878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>419</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>421</v>
       </c>
@@ -11941,7 +11942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>423</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>425</v>
       </c>
@@ -12002,7 +12003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>427</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>428</v>
       </c>
@@ -12066,7 +12067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>430</v>
       </c>
@@ -12098,7 +12099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>432</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>434</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>436</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>438</v>
       </c>
@@ -12226,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>439</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>441</v>
       </c>
@@ -12290,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>442</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>443</v>
       </c>
@@ -12354,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>444</v>
       </c>
@@ -12386,7 +12387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>447</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>448</v>
       </c>
@@ -12450,7 +12451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>449</v>
       </c>
@@ -12482,7 +12483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>451</v>
       </c>
@@ -12514,7 +12515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>452</v>
       </c>
@@ -12546,7 +12547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>454</v>
       </c>
@@ -12578,7 +12579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>456</v>
       </c>
@@ -12610,7 +12611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>457</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>458</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>460</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>461</v>
       </c>
@@ -12738,7 +12739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>463</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>465</v>
       </c>
@@ -12802,7 +12803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>466</v>
       </c>
@@ -12834,7 +12835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>467</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>468</v>
       </c>
@@ -12898,7 +12899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>470</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>471</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>473</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>474</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>475</v>
       </c>
@@ -13058,7 +13059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>478</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>479</v>
       </c>
@@ -13122,7 +13123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>480</v>
       </c>
@@ -13154,7 +13155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>482</v>
       </c>
@@ -13180,7 +13181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>484</v>
       </c>
@@ -13212,7 +13213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>485</v>
       </c>
@@ -13244,7 +13245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>487</v>
       </c>
@@ -13276,7 +13277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>489</v>
       </c>
@@ -13308,7 +13309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>491</v>
       </c>
@@ -13340,7 +13341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>493</v>
       </c>
@@ -13372,7 +13373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>495</v>
       </c>
@@ -13404,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>496</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>497</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>498</v>
       </c>
@@ -13500,7 +13501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>500</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>501</v>
       </c>
@@ -13564,7 +13565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>503</v>
       </c>
@@ -13596,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>504</v>
       </c>
@@ -13628,7 +13629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>506</v>
       </c>
@@ -13660,7 +13661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>508</v>
       </c>
@@ -13692,7 +13693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>510</v>
       </c>
@@ -13724,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>511</v>
       </c>
@@ -13756,7 +13757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>513</v>
       </c>
@@ -13788,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>514</v>
       </c>
@@ -13820,7 +13821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>515</v>
       </c>
@@ -13852,7 +13853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>517</v>
       </c>
@@ -13884,7 +13885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>518</v>
       </c>
@@ -13916,7 +13917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>519</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>520</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>522</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>523</v>
       </c>
@@ -14041,7 +14042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>524</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>526</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>528</v>
       </c>
@@ -14137,7 +14138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>530</v>
       </c>
@@ -14169,7 +14170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>532</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>533</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>534</v>
       </c>
@@ -14265,7 +14266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>535</v>
       </c>
@@ -14297,7 +14298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>536</v>
       </c>
@@ -14329,7 +14330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>538</v>
       </c>
@@ -14361,7 +14362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>540</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>542</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>543</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>545</v>
       </c>
@@ -14489,7 +14490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>547</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>549</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>550</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>551</v>
       </c>
@@ -14617,7 +14618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>552</v>
       </c>
@@ -14649,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>553</v>
       </c>
@@ -14681,7 +14682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>555</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>557</v>
       </c>
@@ -14745,7 +14746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>559</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>561</v>
       </c>
@@ -14809,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>562</v>
       </c>
@@ -14841,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>563</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>564</v>
       </c>
@@ -14905,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>565</v>
       </c>
@@ -14937,7 +14938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>567</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>568</v>
       </c>
@@ -15001,7 +15002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>569</v>
       </c>
@@ -15033,7 +15034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>570</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>572</v>
       </c>
@@ -15097,7 +15098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>574</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>575</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>577</v>
       </c>
@@ -15193,7 +15194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>578</v>
       </c>
@@ -15225,7 +15226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>580</v>
       </c>
@@ -15257,7 +15258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>581</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>582</v>
       </c>
@@ -15321,7 +15322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>584</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>585</v>
       </c>
@@ -15385,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>586</v>
       </c>
@@ -15417,7 +15418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>587</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>588</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>589</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>590</v>
       </c>
@@ -15545,7 +15546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>591</v>
       </c>
@@ -15577,7 +15578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>593</v>
       </c>
@@ -15609,7 +15610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>595</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>596</v>
       </c>
@@ -15673,7 +15674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>598</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>600</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>601</v>
       </c>
@@ -15769,7 +15770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>602</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>603</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>604</v>
       </c>
@@ -15865,7 +15866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>605</v>
       </c>
@@ -15897,7 +15898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>606</v>
       </c>
@@ -15929,7 +15930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>608</v>
       </c>
@@ -15961,7 +15962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>609</v>
       </c>
@@ -15990,7 +15991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>610</v>
       </c>
@@ -16022,7 +16023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>612</v>
       </c>
@@ -16054,7 +16055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>614</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>616</v>
       </c>
@@ -16118,7 +16119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>618</v>
       </c>
@@ -16150,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>619</v>
       </c>
@@ -16182,7 +16183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>621</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>622</v>
       </c>
@@ -16243,7 +16244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>624</v>
       </c>
@@ -16275,7 +16276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>625</v>
       </c>
@@ -16307,7 +16308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>627</v>
       </c>
@@ -16339,7 +16340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>628</v>
       </c>
@@ -16371,7 +16372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>630</v>
       </c>
@@ -16403,7 +16404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>631</v>
       </c>
@@ -16435,7 +16436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>633</v>
       </c>
@@ -16467,7 +16468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>634</v>
       </c>
@@ -16499,7 +16500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>636</v>
       </c>
@@ -16531,7 +16532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>638</v>
       </c>
@@ -16563,7 +16564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>639</v>
       </c>
@@ -16595,7 +16596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>641</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>643</v>
       </c>
@@ -16659,7 +16660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>645</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>647</v>
       </c>
@@ -16723,7 +16724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>648</v>
       </c>
@@ -16752,7 +16753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>650</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>652</v>
       </c>
@@ -16816,7 +16817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>654</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>656</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>657</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>659</v>
       </c>
@@ -16944,7 +16945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>660</v>
       </c>
@@ -16976,7 +16977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>661</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>662</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>663</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>664</v>
       </c>
@@ -17104,7 +17105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>665</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>667</v>
       </c>
@@ -17168,7 +17169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>668</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>669</v>
       </c>
@@ -17232,7 +17233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>670</v>
       </c>
@@ -17264,7 +17265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>671</v>
       </c>
@@ -17296,7 +17297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>672</v>
       </c>
@@ -17328,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>673</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>674</v>
       </c>
@@ -17392,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>676</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>677</v>
       </c>
@@ -17456,7 +17457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>678</v>
       </c>
@@ -17488,7 +17489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>679</v>
       </c>
@@ -17520,7 +17521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>680</v>
       </c>
@@ -17552,7 +17553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>681</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>682</v>
       </c>
@@ -17616,7 +17617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>683</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>685</v>
       </c>
@@ -17680,7 +17681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>687</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>689</v>
       </c>
@@ -17744,7 +17745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>691</v>
       </c>
@@ -17776,7 +17777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>692</v>
       </c>
@@ -17808,7 +17809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>693</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>695</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>697</v>
       </c>
@@ -17904,7 +17905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>699</v>
       </c>
@@ -17936,7 +17937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>701</v>
       </c>
@@ -17968,7 +17969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>702</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>704</v>
       </c>
@@ -18032,7 +18033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>706</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>707</v>
       </c>
@@ -18096,7 +18097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>708</v>
       </c>
@@ -18128,7 +18129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>709</v>
       </c>
@@ -18160,7 +18161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>710</v>
       </c>
@@ -18192,7 +18193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>711</v>
       </c>
@@ -18224,7 +18225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>712</v>
       </c>
@@ -18256,7 +18257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>713</v>
       </c>
@@ -18288,7 +18289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>714</v>
       </c>
@@ -18320,7 +18321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>715</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>717</v>
       </c>
@@ -18384,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>718</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>719</v>
       </c>
@@ -18448,7 +18449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>721</v>
       </c>
@@ -18480,7 +18481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>723</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>724</v>
       </c>
@@ -18544,7 +18545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>725</v>
       </c>
@@ -18576,7 +18577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>726</v>
       </c>
@@ -18608,7 +18609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>728</v>
       </c>
@@ -18640,7 +18641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>729</v>
       </c>
@@ -18672,7 +18673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>730</v>
       </c>
@@ -18704,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>731</v>
       </c>
@@ -18736,7 +18737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>732</v>
       </c>
@@ -18768,7 +18769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>733</v>
       </c>
@@ -18800,7 +18801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>734</v>
       </c>
@@ -18832,7 +18833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>735</v>
       </c>
@@ -18864,7 +18865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>736</v>
       </c>
@@ -18896,7 +18897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>737</v>
       </c>
@@ -18925,7 +18926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>739</v>
       </c>
@@ -18957,7 +18958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>740</v>
       </c>
@@ -18989,7 +18990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>742</v>
       </c>
@@ -19021,7 +19022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>743</v>
       </c>
@@ -19053,7 +19054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>744</v>
       </c>
@@ -19085,7 +19086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>746</v>
       </c>
@@ -19117,7 +19118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>747</v>
       </c>
@@ -19149,7 +19150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>749</v>
       </c>
@@ -19181,7 +19182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>750</v>
       </c>
@@ -19213,7 +19214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>752</v>
       </c>
@@ -19245,7 +19246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>753</v>
       </c>
@@ -19277,7 +19278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>755</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>757</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>758</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>760</v>
       </c>
@@ -19405,7 +19406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>762</v>
       </c>
@@ -19437,7 +19438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>763</v>
       </c>
@@ -19469,7 +19470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>765</v>
       </c>
@@ -19501,7 +19502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>766</v>
       </c>
@@ -19533,7 +19534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>768</v>
       </c>
@@ -19565,7 +19566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>770</v>
       </c>
@@ -19597,7 +19598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>771</v>
       </c>
@@ -19629,7 +19630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>772</v>
       </c>
@@ -19661,7 +19662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>774</v>
       </c>
@@ -19693,7 +19694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>776</v>
       </c>
@@ -19725,7 +19726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>778</v>
       </c>
@@ -19757,7 +19758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>779</v>
       </c>
@@ -19789,7 +19790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>780</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>782</v>
       </c>
@@ -19853,7 +19854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>783</v>
       </c>
@@ -19885,7 +19886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>785</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>787</v>
       </c>
@@ -19949,7 +19950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>788</v>
       </c>
@@ -19981,7 +19982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>790</v>
       </c>
@@ -20013,7 +20014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>792</v>
       </c>
@@ -20045,7 +20046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>794</v>
       </c>
@@ -20077,7 +20078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>796</v>
       </c>
@@ -20109,7 +20110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>798</v>
       </c>
@@ -20141,7 +20142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>799</v>
       </c>
@@ -20173,7 +20174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>801</v>
       </c>
@@ -20205,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>802</v>
       </c>
@@ -20237,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>803</v>
       </c>
@@ -20269,7 +20270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>804</v>
       </c>
@@ -20301,7 +20302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>805</v>
       </c>
@@ -20333,7 +20334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>807</v>
       </c>
@@ -20365,7 +20366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>808</v>
       </c>
@@ -20397,7 +20398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>810</v>
       </c>
@@ -20429,7 +20430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>811</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>812</v>
       </c>
@@ -20493,7 +20494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>813</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>815</v>
       </c>
@@ -20557,7 +20558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>816</v>
       </c>
@@ -20589,7 +20590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>817</v>
       </c>
@@ -20621,7 +20622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>819</v>
       </c>
@@ -20653,7 +20654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>820</v>
       </c>
@@ -20685,7 +20686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>821</v>
       </c>
@@ -20717,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>822</v>
       </c>
@@ -20749,7 +20750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>823</v>
       </c>
@@ -20781,7 +20782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>824</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>825</v>
       </c>
@@ -20845,7 +20846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>826</v>
       </c>
@@ -20877,7 +20878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>827</v>
       </c>
@@ -20909,7 +20910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>828</v>
       </c>
@@ -20941,7 +20942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>829</v>
       </c>
@@ -20973,7 +20974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>831</v>
       </c>
@@ -21005,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>832</v>
       </c>
@@ -21037,7 +21038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>834</v>
       </c>
@@ -21069,7 +21070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>835</v>
       </c>
@@ -21101,7 +21102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>836</v>
       </c>
@@ -21133,7 +21134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>838</v>
       </c>
@@ -21165,7 +21166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>839</v>
       </c>
@@ -21197,7 +21198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>840</v>
       </c>
@@ -21229,7 +21230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>842</v>
       </c>
@@ -21261,7 +21262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>844</v>
       </c>
@@ -21293,7 +21294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>846</v>
       </c>
@@ -21325,7 +21326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>847</v>
       </c>
@@ -21357,7 +21358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>848</v>
       </c>
@@ -21389,7 +21390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>850</v>
       </c>
@@ -21421,7 +21422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>851</v>
       </c>
@@ -21453,7 +21454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>853</v>
       </c>
@@ -21485,7 +21486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>855</v>
       </c>
@@ -21517,7 +21518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>857</v>
       </c>
@@ -21549,7 +21550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>858</v>
       </c>
@@ -21581,7 +21582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>859</v>
       </c>
@@ -21613,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>860</v>
       </c>
@@ -21645,7 +21646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>861</v>
       </c>
@@ -21677,7 +21678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>862</v>
       </c>
@@ -21709,7 +21710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>863</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>864</v>
       </c>
@@ -21773,7 +21774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>866</v>
       </c>
@@ -21805,7 +21806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>867</v>
       </c>
@@ -21837,7 +21838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>868</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>870</v>
       </c>
@@ -21901,7 +21902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>871</v>
       </c>
@@ -21933,7 +21934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>872</v>
       </c>
@@ -21965,7 +21966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>873</v>
       </c>
@@ -21997,7 +21998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>874</v>
       </c>
@@ -22029,7 +22030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>876</v>
       </c>
@@ -22061,7 +22062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>877</v>
       </c>
@@ -22093,7 +22094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>878</v>
       </c>
@@ -22125,7 +22126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>879</v>
       </c>
@@ -22157,7 +22158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>880</v>
       </c>
@@ -22189,7 +22190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>881</v>
       </c>
@@ -22221,7 +22222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>883</v>
       </c>
@@ -22253,7 +22254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>884</v>
       </c>
@@ -22285,7 +22286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>885</v>
       </c>
@@ -22317,7 +22318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>886</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>887</v>
       </c>
@@ -22381,7 +22382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>889</v>
       </c>
@@ -22413,7 +22414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>890</v>
       </c>
@@ -22445,7 +22446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>891</v>
       </c>
@@ -22477,7 +22478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>892</v>
       </c>
@@ -22509,7 +22510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>894</v>
       </c>
@@ -22541,7 +22542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>47</v>
       </c>
@@ -22570,7 +22571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>347</v>
       </c>
@@ -22599,7 +22600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>896</v>
       </c>
@@ -22631,7 +22632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>897</v>
       </c>
@@ -22663,7 +22664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>898</v>
       </c>
@@ -22727,7 +22728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>901</v>
       </c>
@@ -22759,7 +22760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>902</v>
       </c>
@@ -22791,7 +22792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>904</v>
       </c>
@@ -22823,7 +22824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>905</v>
       </c>
@@ -22855,7 +22856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>907</v>
       </c>
@@ -22887,7 +22888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>908</v>
       </c>
@@ -22919,7 +22920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>910</v>
       </c>
@@ -22951,7 +22952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>911</v>
       </c>
@@ -22983,7 +22984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>913</v>
       </c>
@@ -23015,7 +23016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>914</v>
       </c>
@@ -23044,7 +23045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>916</v>
       </c>
@@ -23076,7 +23077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>917</v>
       </c>
@@ -23108,7 +23109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>918</v>
       </c>
@@ -23140,7 +23141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>920</v>
       </c>
@@ -23172,7 +23173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>921</v>
       </c>
@@ -23201,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>922</v>
       </c>
@@ -23233,7 +23234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>923</v>
       </c>
@@ -23265,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>924</v>
       </c>
@@ -23297,7 +23298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>925</v>
       </c>
@@ -23329,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>926</v>
       </c>
@@ -23361,7 +23362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>928</v>
       </c>
@@ -23393,7 +23394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>930</v>
       </c>
@@ -23425,7 +23426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>931</v>
       </c>
@@ -23457,7 +23458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>932</v>
       </c>
@@ -23489,7 +23490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>934</v>
       </c>
@@ -23521,7 +23522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>935</v>
       </c>
@@ -23553,7 +23554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>936</v>
       </c>
@@ -23579,7 +23580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>937</v>
       </c>
@@ -23608,7 +23609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>940</v>
       </c>
@@ -23640,7 +23641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>941</v>
       </c>
@@ -23672,7 +23673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>942</v>
       </c>
@@ -23704,7 +23705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>264</v>
       </c>
@@ -23736,7 +23737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>943</v>
       </c>
@@ -23768,7 +23769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>944</v>
       </c>
@@ -23800,7 +23801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>945</v>
       </c>
@@ -23832,7 +23833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>946</v>
       </c>
@@ -23864,7 +23865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>947</v>
       </c>
@@ -23896,7 +23897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>949</v>
       </c>
@@ -23928,7 +23929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>950</v>
       </c>
@@ -23960,7 +23961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>952</v>
       </c>
@@ -23992,7 +23993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>953</v>
       </c>
@@ -24024,7 +24025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>954</v>
       </c>
@@ -24056,7 +24057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>955</v>
       </c>
@@ -24088,7 +24089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>956</v>
       </c>
@@ -24120,7 +24121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>957</v>
       </c>
@@ -24152,7 +24153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>958</v>
       </c>
@@ -24184,7 +24185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>959</v>
       </c>
@@ -24216,7 +24217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>960</v>
       </c>
@@ -24248,7 +24249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>961</v>
       </c>
@@ -24280,7 +24281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>962</v>
       </c>
@@ -24312,7 +24313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>963</v>
       </c>
@@ -24344,7 +24345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>964</v>
       </c>
@@ -24376,7 +24377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>966</v>
       </c>
@@ -24408,7 +24409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>967</v>
       </c>
@@ -24440,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>968</v>
       </c>
@@ -24472,7 +24473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>969</v>
       </c>
@@ -24504,7 +24505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>970</v>
       </c>
@@ -24536,7 +24537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>971</v>
       </c>
@@ -24568,7 +24569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>972</v>
       </c>
@@ -24600,7 +24601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>973</v>
       </c>
@@ -24632,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>974</v>
       </c>
@@ -24664,7 +24665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>975</v>
       </c>
@@ -24696,7 +24697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>976</v>
       </c>
@@ -24728,7 +24729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>977</v>
       </c>
@@ -24760,7 +24761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>978</v>
       </c>
@@ -24792,7 +24793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>979</v>
       </c>
@@ -24824,7 +24825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>981</v>
       </c>
@@ -24856,7 +24857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>982</v>
       </c>
@@ -24888,7 +24889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>983</v>
       </c>
@@ -24920,7 +24921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>984</v>
       </c>
@@ -24952,7 +24953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>985</v>
       </c>
@@ -24984,7 +24985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>986</v>
       </c>
@@ -25016,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>987</v>
       </c>
@@ -25048,7 +25049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>988</v>
       </c>
@@ -25080,7 +25081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>989</v>
       </c>
@@ -25112,7 +25113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>990</v>
       </c>
@@ -25144,7 +25145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>991</v>
       </c>
@@ -25176,7 +25177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>992</v>
       </c>
@@ -25208,7 +25209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>993</v>
       </c>
@@ -25240,7 +25241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>994</v>
       </c>
@@ -25272,7 +25273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>995</v>
       </c>
@@ -25304,7 +25305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>996</v>
       </c>
@@ -25336,7 +25337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>997</v>
       </c>
@@ -25368,7 +25369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>998</v>
       </c>
@@ -25400,7 +25401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>999</v>
       </c>
@@ -25432,7 +25433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1000</v>
       </c>
@@ -25464,7 +25465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1001</v>
       </c>
@@ -25496,7 +25497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1002</v>
       </c>
@@ -25528,7 +25529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1003</v>
       </c>
@@ -25560,7 +25561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1004</v>
       </c>
@@ -25592,7 +25593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1005</v>
       </c>
@@ -25624,7 +25625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1006</v>
       </c>
@@ -25656,7 +25657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1007</v>
       </c>
@@ -25688,7 +25689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1008</v>
       </c>
@@ -25720,7 +25721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1009</v>
       </c>
@@ -25752,7 +25753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1010</v>
       </c>
@@ -25784,7 +25785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1011</v>
       </c>
@@ -25816,7 +25817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1012</v>
       </c>
@@ -25848,7 +25849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1013</v>
       </c>
@@ -25880,7 +25881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1014</v>
       </c>
@@ -25912,7 +25913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1015</v>
       </c>
@@ -25944,7 +25945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1016</v>
       </c>
@@ -25976,7 +25977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1018</v>
       </c>
@@ -26005,7 +26006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1019</v>
       </c>
@@ -26037,7 +26038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1020</v>
       </c>
@@ -26069,7 +26070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1021</v>
       </c>
@@ -26101,7 +26102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1022</v>
       </c>
@@ -26133,7 +26134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1023</v>
       </c>
@@ -26165,7 +26166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1024</v>
       </c>
@@ -26197,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1025</v>
       </c>
@@ -26229,7 +26230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1026</v>
       </c>
@@ -26261,7 +26262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1027</v>
       </c>
@@ -26293,7 +26294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1028</v>
       </c>
@@ -26325,7 +26326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1029</v>
       </c>
@@ -26357,7 +26358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1030</v>
       </c>
@@ -26389,7 +26390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1031</v>
       </c>
@@ -26421,7 +26422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1032</v>
       </c>
@@ -26453,7 +26454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1033</v>
       </c>
@@ -26485,7 +26486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1034</v>
       </c>
@@ -26517,7 +26518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1035</v>
       </c>
@@ -26549,7 +26550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1036</v>
       </c>
@@ -26581,7 +26582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1038</v>
       </c>
@@ -26613,7 +26614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1040</v>
       </c>
@@ -26645,7 +26646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1041</v>
       </c>
@@ -26677,7 +26678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1042</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1043</v>
       </c>
@@ -26741,7 +26742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1044</v>
       </c>
@@ -26773,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1045</v>
       </c>
@@ -26805,7 +26806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1046</v>
       </c>
@@ -26837,7 +26838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1047</v>
       </c>
@@ -26869,7 +26870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1048</v>
       </c>
@@ -26901,7 +26902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1049</v>
       </c>
@@ -26933,7 +26934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1050</v>
       </c>
@@ -26965,7 +26966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1051</v>
       </c>
@@ -26997,7 +26998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1052</v>
       </c>
@@ -27029,7 +27030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1053</v>
       </c>
@@ -27061,7 +27062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1054</v>
       </c>
@@ -27093,7 +27094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1055</v>
       </c>
@@ -27125,7 +27126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1056</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1057</v>
       </c>
@@ -27189,7 +27190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1059</v>
       </c>
@@ -27221,7 +27222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1060</v>
       </c>
@@ -27253,7 +27254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1061</v>
       </c>
@@ -27285,7 +27286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1062</v>
       </c>
@@ -27317,7 +27318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1063</v>
       </c>
@@ -27349,7 +27350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1064</v>
       </c>
@@ -27381,7 +27382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1065</v>
       </c>
@@ -27413,7 +27414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1066</v>
       </c>
@@ -27445,7 +27446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1067</v>
       </c>
@@ -27477,7 +27478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1068</v>
       </c>
@@ -27509,7 +27510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1069</v>
       </c>
@@ -27541,7 +27542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1070</v>
       </c>
@@ -27573,7 +27574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1071</v>
       </c>
@@ -27605,7 +27606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1072</v>
       </c>
@@ -27637,7 +27638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1073</v>
       </c>
@@ -27669,7 +27670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1074</v>
       </c>
@@ -27701,7 +27702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1075</v>
       </c>
@@ -27733,7 +27734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1076</v>
       </c>
@@ -27765,7 +27766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1078</v>
       </c>
@@ -27797,7 +27798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1080</v>
       </c>
@@ -27829,7 +27830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1081</v>
       </c>
@@ -27861,7 +27862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1082</v>
       </c>
@@ -27893,7 +27894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1083</v>
       </c>
@@ -27925,7 +27926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1084</v>
       </c>
@@ -27957,7 +27958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1085</v>
       </c>
@@ -27989,7 +27990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1086</v>
       </c>
@@ -28021,7 +28022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1087</v>
       </c>
@@ -28053,7 +28054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1088</v>
       </c>
@@ -28085,7 +28086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1089</v>
       </c>
@@ -28117,7 +28118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1090</v>
       </c>
@@ -28149,7 +28150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1091</v>
       </c>
@@ -28181,7 +28182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1092</v>
       </c>
@@ -28213,7 +28214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1093</v>
       </c>
@@ -28245,7 +28246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1094</v>
       </c>
@@ -28277,7 +28278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1095</v>
       </c>
@@ -28309,7 +28310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1096</v>
       </c>
@@ -28341,7 +28342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1097</v>
       </c>
@@ -28373,7 +28374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1099</v>
       </c>
@@ -28405,7 +28406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1100</v>
       </c>
@@ -28437,7 +28438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1101</v>
       </c>
@@ -28469,7 +28470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1103</v>
       </c>
@@ -28501,7 +28502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1105</v>
       </c>
@@ -28533,7 +28534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1106</v>
       </c>
@@ -28565,7 +28566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1107</v>
       </c>
@@ -28597,7 +28598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1109</v>
       </c>
@@ -28629,7 +28630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1110</v>
       </c>
@@ -28661,7 +28662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1111</v>
       </c>
@@ -28693,7 +28694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1113</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1114</v>
       </c>
@@ -28757,7 +28758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1115</v>
       </c>
@@ -28789,7 +28790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1116</v>
       </c>
@@ -28821,7 +28822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1117</v>
       </c>
@@ -28853,7 +28854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1118</v>
       </c>
@@ -28885,7 +28886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1120</v>
       </c>
@@ -28917,7 +28918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1121</v>
       </c>
@@ -28949,7 +28950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1123</v>
       </c>
@@ -28981,7 +28982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1124</v>
       </c>
@@ -29013,7 +29014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1125</v>
       </c>
@@ -29045,7 +29046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1126</v>
       </c>
@@ -29077,7 +29078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1127</v>
       </c>
@@ -29109,7 +29110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1129</v>
       </c>
@@ -29141,7 +29142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1130</v>
       </c>
@@ -29173,7 +29174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1131</v>
       </c>
@@ -29205,7 +29206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1132</v>
       </c>
@@ -29237,7 +29238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1133</v>
       </c>
@@ -29269,7 +29270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1134</v>
       </c>
@@ -29301,7 +29302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1136</v>
       </c>
@@ -29333,7 +29334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1137</v>
       </c>
@@ -29365,7 +29366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1138</v>
       </c>
@@ -29397,7 +29398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1139</v>
       </c>
@@ -29429,7 +29430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1140</v>
       </c>
@@ -29461,7 +29462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1141</v>
       </c>
@@ -29493,7 +29494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1143</v>
       </c>
@@ -29525,7 +29526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1145</v>
       </c>
@@ -29557,7 +29558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1146</v>
       </c>
@@ -29589,7 +29590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1147</v>
       </c>
@@ -29621,7 +29622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1148</v>
       </c>
@@ -29653,7 +29654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1149</v>
       </c>
@@ -29685,7 +29686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1150</v>
       </c>
@@ -29717,7 +29718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1151</v>
       </c>
@@ -29749,7 +29750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1152</v>
       </c>
@@ -29781,7 +29782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1153</v>
       </c>
@@ -29813,7 +29814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1154</v>
       </c>
@@ -29845,7 +29846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1155</v>
       </c>
@@ -29877,7 +29878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1156</v>
       </c>
@@ -29909,7 +29910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1157</v>
       </c>
@@ -29941,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1158</v>
       </c>
@@ -29973,7 +29974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1159</v>
       </c>
@@ -30005,7 +30006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1160</v>
       </c>
@@ -30037,7 +30038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1161</v>
       </c>
@@ -30069,7 +30070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1162</v>
       </c>
@@ -30101,7 +30102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1163</v>
       </c>
@@ -30133,7 +30134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1164</v>
       </c>
@@ -30165,7 +30166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1166</v>
       </c>
@@ -30197,7 +30198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1167</v>
       </c>
@@ -30229,7 +30230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1168</v>
       </c>
@@ -30261,7 +30262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1170</v>
       </c>
@@ -30293,7 +30294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1171</v>
       </c>
@@ -30325,7 +30326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1172</v>
       </c>
@@ -30357,7 +30358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1173</v>
       </c>
@@ -30389,7 +30390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1174</v>
       </c>
@@ -30421,7 +30422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1175</v>
       </c>
@@ -30453,7 +30454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1176</v>
       </c>
@@ -30485,7 +30486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1177</v>
       </c>
@@ -30517,7 +30518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1178</v>
       </c>
@@ -30549,7 +30550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1179</v>
       </c>
@@ -30581,7 +30582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1180</v>
       </c>
@@ -30613,7 +30614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1181</v>
       </c>
@@ -30645,7 +30646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1182</v>
       </c>
@@ -30677,7 +30678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1183</v>
       </c>
@@ -30709,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1184</v>
       </c>
@@ -30741,7 +30742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1185</v>
       </c>
@@ -30773,7 +30774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1186</v>
       </c>
@@ -30805,7 +30806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1187</v>
       </c>
@@ -30837,7 +30838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1188</v>
       </c>
@@ -30869,7 +30870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1190</v>
       </c>
@@ -30901,7 +30902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1191</v>
       </c>
@@ -30933,7 +30934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1192</v>
       </c>
@@ -30965,7 +30966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1193</v>
       </c>
@@ -30997,7 +30998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1195</v>
       </c>
@@ -31029,7 +31030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1196</v>
       </c>
@@ -31061,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1197</v>
       </c>
@@ -31093,7 +31094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1198</v>
       </c>
@@ -31125,7 +31126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1199</v>
       </c>
@@ -31157,7 +31158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1200</v>
       </c>
@@ -31189,7 +31190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1201</v>
       </c>
@@ -31221,7 +31222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1202</v>
       </c>
@@ -31253,7 +31254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1203</v>
       </c>
@@ -31285,7 +31286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1204</v>
       </c>
@@ -31317,7 +31318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1205</v>
       </c>
@@ -31349,7 +31350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1206</v>
       </c>
@@ -31381,7 +31382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1207</v>
       </c>
@@ -31413,7 +31414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1208</v>
       </c>
@@ -31445,7 +31446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1209</v>
       </c>
@@ -31477,7 +31478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1210</v>
       </c>
@@ -31509,7 +31510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1212</v>
       </c>
@@ -31541,7 +31542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1213</v>
       </c>
@@ -31573,7 +31574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1214</v>
       </c>
@@ -31605,7 +31606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1215</v>
       </c>
@@ -31637,7 +31638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1216</v>
       </c>
@@ -31669,7 +31670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1217</v>
       </c>
@@ -31701,7 +31702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1218</v>
       </c>
@@ -31733,7 +31734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1219</v>
       </c>
@@ -31765,7 +31766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1220</v>
       </c>
@@ -31797,7 +31798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1221</v>
       </c>
@@ -31829,7 +31830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1222</v>
       </c>
@@ -31861,7 +31862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1223</v>
       </c>
@@ -31893,7 +31894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1224</v>
       </c>
@@ -31925,7 +31926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1225</v>
       </c>
@@ -31957,7 +31958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1226</v>
       </c>
@@ -31989,7 +31990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1227</v>
       </c>
@@ -32021,7 +32022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1228</v>
       </c>
@@ -32053,7 +32054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1229</v>
       </c>
@@ -32085,7 +32086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1230</v>
       </c>
@@ -32117,7 +32118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1231</v>
       </c>
@@ -32149,7 +32150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1232</v>
       </c>
@@ -32181,7 +32182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1233</v>
       </c>
@@ -32213,7 +32214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1234</v>
       </c>
@@ -32245,7 +32246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1235</v>
       </c>
@@ -32277,7 +32278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1236</v>
       </c>
@@ -32309,7 +32310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1237</v>
       </c>
@@ -32341,7 +32342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1238</v>
       </c>
@@ -32373,7 +32374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1240</v>
       </c>
@@ -32405,7 +32406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1241</v>
       </c>
@@ -32437,7 +32438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1242</v>
       </c>
@@ -32469,7 +32470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>1243</v>
       </c>
@@ -32501,7 +32502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>1244</v>
       </c>
@@ -32533,7 +32534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>1245</v>
       </c>
@@ -32565,7 +32566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1246</v>
       </c>
@@ -32597,7 +32598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>1247</v>
       </c>
@@ -32629,7 +32630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>1248</v>
       </c>
@@ -32661,7 +32662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1249</v>
       </c>
@@ -32693,7 +32694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1250</v>
       </c>
@@ -32725,7 +32726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>1252</v>
       </c>
@@ -32757,7 +32758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>1253</v>
       </c>
@@ -32789,7 +32790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>1254</v>
       </c>
@@ -32821,7 +32822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>1255</v>
       </c>
@@ -32853,7 +32854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>1256</v>
       </c>
@@ -32885,7 +32886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1257</v>
       </c>
@@ -32917,7 +32918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1258</v>
       </c>
@@ -32949,7 +32950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>1259</v>
       </c>
@@ -32981,7 +32982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>1260</v>
       </c>
@@ -33013,7 +33014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>1261</v>
       </c>
@@ -33045,7 +33046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>1262</v>
       </c>
@@ -33077,7 +33078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>1263</v>
       </c>
@@ -33109,7 +33110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>1264</v>
       </c>
@@ -33141,7 +33142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="900" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>1265</v>
       </c>
@@ -33173,7 +33174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>1266</v>
       </c>
@@ -33205,7 +33206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>1267</v>
       </c>
@@ -33237,7 +33238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>1268</v>
       </c>
@@ -33269,7 +33270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>1269</v>
       </c>
@@ -33301,7 +33302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>1270</v>
       </c>
@@ -33333,7 +33334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>1271</v>
       </c>
@@ -33365,7 +33366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1272</v>
       </c>
@@ -33397,7 +33398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>1273</v>
       </c>
@@ -33429,7 +33430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>1274</v>
       </c>
@@ -33461,7 +33462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>1275</v>
       </c>
@@ -33493,7 +33494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1276</v>
       </c>
@@ -33525,7 +33526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>1277</v>
       </c>
@@ -33557,7 +33558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="913" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>1278</v>
       </c>
@@ -33589,7 +33590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>1279</v>
       </c>
@@ -33621,7 +33622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>1280</v>
       </c>
@@ -33653,7 +33654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>1281</v>
       </c>
@@ -33685,7 +33686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>1282</v>
       </c>
@@ -33717,7 +33718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>1283</v>
       </c>
@@ -33749,7 +33750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>1284</v>
       </c>
@@ -33781,7 +33782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>1285</v>
       </c>
@@ -33813,7 +33814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>1286</v>
       </c>
@@ -33845,7 +33846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>1287</v>
       </c>
@@ -33877,7 +33878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="923" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>1288</v>
       </c>
@@ -33909,7 +33910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="924" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>1289</v>
       </c>
@@ -33941,7 +33942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>1290</v>
       </c>
@@ -33973,7 +33974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>1291</v>
       </c>
@@ -34005,7 +34006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>1293</v>
       </c>
@@ -34037,7 +34038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>1294</v>
       </c>
@@ -34069,7 +34070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>1295</v>
       </c>
@@ -34101,7 +34102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>1296</v>
       </c>
@@ -34133,7 +34134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>1297</v>
       </c>
@@ -34165,7 +34166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>1298</v>
       </c>
@@ -34197,7 +34198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>1299</v>
       </c>
@@ -34229,7 +34230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>1300</v>
       </c>
@@ -34261,7 +34262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>1301</v>
       </c>
@@ -34293,7 +34294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>1302</v>
       </c>
@@ -34325,7 +34326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>1303</v>
       </c>
@@ -34357,7 +34358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="938" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>1304</v>
       </c>
@@ -34389,7 +34390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>1305</v>
       </c>
@@ -34421,7 +34422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="940" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>1306</v>
       </c>
@@ -34453,7 +34454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>1307</v>
       </c>
@@ -34485,7 +34486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>1308</v>
       </c>
@@ -34517,7 +34518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="943" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>1309</v>
       </c>
@@ -34549,7 +34550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>1310</v>
       </c>
@@ -34581,7 +34582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="945" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>1311</v>
       </c>
@@ -34613,7 +34614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>1312</v>
       </c>
@@ -34645,7 +34646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>1313</v>
       </c>
@@ -34677,7 +34678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>1314</v>
       </c>
@@ -34709,7 +34710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>1315</v>
       </c>
@@ -34741,7 +34742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>1316</v>
       </c>
@@ -34773,7 +34774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="951" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>1317</v>
       </c>
@@ -34805,7 +34806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="952" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>1318</v>
       </c>
@@ -34837,7 +34838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>1319</v>
       </c>
@@ -34869,7 +34870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>1320</v>
       </c>
@@ -34901,7 +34902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>1321</v>
       </c>
@@ -34933,7 +34934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="956" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>1322</v>
       </c>
@@ -34965,7 +34966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>1323</v>
       </c>
@@ -34997,7 +34998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>1324</v>
       </c>
@@ -35029,7 +35030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>1325</v>
       </c>
@@ -35061,7 +35062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>1326</v>
       </c>
@@ -35093,7 +35094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>1327</v>
       </c>
@@ -35125,7 +35126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>1328</v>
       </c>
@@ -35157,7 +35158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="963" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>1329</v>
       </c>
@@ -35189,7 +35190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>1330</v>
       </c>
@@ -35221,7 +35222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>1331</v>
       </c>
@@ -35253,7 +35254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="966" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>1332</v>
       </c>
@@ -35285,7 +35286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>1333</v>
       </c>
@@ -35317,7 +35318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>1334</v>
       </c>
@@ -35349,7 +35350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="969" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>1335</v>
       </c>
@@ -35381,7 +35382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>1336</v>
       </c>
@@ -35413,7 +35414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>1337</v>
       </c>
@@ -35445,7 +35446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>1338</v>
       </c>
@@ -35477,7 +35478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>1339</v>
       </c>
@@ -35509,7 +35510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>1340</v>
       </c>
@@ -35541,7 +35542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>1341</v>
       </c>
@@ -35574,18 +35575,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J975" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Cravo Norte"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="red"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>